--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>7号</t>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
   </si>
 </sst>
 </file>
@@ -1030,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7760416666667" style="1"/>
   </cols>
@@ -1056,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
@@ -1066,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1074,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1082,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1090,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1098,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1106,7 +1112,23 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>402000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>
